--- a/MCA FEES.xlsx
+++ b/MCA FEES.xlsx
@@ -27,21 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+  <si>
+    <t xml:space="preserve">STATE NAME </t>
+  </si>
   <si>
     <t>AUTHORISED CAPITAL</t>
   </si>
   <si>
-    <t>STATE</t>
-  </si>
-  <si>
-    <t>Rs.1,00,000</t>
-  </si>
-  <si>
-    <t>Rs. 15,00,000</t>
-  </si>
-  <si>
-    <t>Rs. 50,00,000</t>
+    <t>FEES</t>
   </si>
   <si>
     <t>PUNJAB</t>
@@ -84,12 +78,6 @@
   </si>
   <si>
     <t>ANDHRA PRADESH </t>
-  </si>
-  <si>
-    <t>*FEES INCLUDES:NAME APPLICATION FEES,STAMP DUTY,STAMP DUTYON MOA,  STAMP DUTY ON AOA</t>
-  </si>
-  <si>
-    <t>* Note  : Rs. 143 for PAN  &amp; TAN extra</t>
   </si>
 </sst>
 </file>
@@ -102,10 +90,17 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -118,22 +113,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -607,158 +588,158 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1091,241 +1072,361 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E3:H27"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="34.4285714285714" customWidth="1"/>
-    <col min="6" max="10" width="32.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="34.4285714285714" customWidth="1"/>
+    <col min="2" max="8" width="32.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="15.75" spans="7:7">
-      <c r="G3" t="s">
+    <row r="1" ht="15.75" spans="1:7">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" ht="24" spans="5:8">
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
+    <row r="2" ht="24" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="B2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>11025</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E2" s="3">
+        <v>16025</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="G2" s="3">
+        <v>99025</v>
+      </c>
+    </row>
+    <row r="3" ht="24" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1123</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1183</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="G3" s="3">
+        <v>84183</v>
+      </c>
     </row>
-    <row r="5" ht="75.75" spans="5:8">
-      <c r="E5" s="2" t="s">
+    <row r="4" ht="24" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="3">
-        <v>11025</v>
+      <c r="B4" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2503</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2503</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>85503</v>
+      </c>
+    </row>
+    <row r="5" ht="24" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1135</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1195</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5000000</v>
       </c>
       <c r="G5" s="3">
-        <v>16025</v>
-      </c>
-      <c r="H5" s="3">
-        <v>99025</v>
+        <v>84195</v>
       </c>
     </row>
-    <row r="6" ht="57" spans="5:8">
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1123</v>
+    <row r="6" ht="24" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1360</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3460</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5000000</v>
       </c>
       <c r="G6" s="3">
-        <v>1183</v>
-      </c>
-      <c r="H6" s="3">
-        <v>84183</v>
+        <v>91710</v>
       </c>
     </row>
-    <row r="7" ht="38.25" spans="5:8">
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2503</v>
+    <row r="7" ht="24" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1310</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1460</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5000000</v>
       </c>
       <c r="G7" s="3">
-        <v>2503</v>
-      </c>
-      <c r="H7" s="3">
-        <v>85503</v>
+        <v>84460</v>
       </c>
     </row>
-    <row r="8" ht="21.75" spans="5:8">
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1135</v>
+    <row r="8" ht="24" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2010</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2010</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5000000</v>
       </c>
       <c r="G8" s="3">
-        <v>1195</v>
-      </c>
-      <c r="H8" s="3">
-        <v>84195</v>
+        <v>85010</v>
       </c>
     </row>
-    <row r="9" ht="75.75" spans="5:8">
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1360</v>
+    <row r="9" ht="24" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2010</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2010</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5000000</v>
       </c>
       <c r="G9" s="3">
-        <v>3460</v>
-      </c>
-      <c r="H9" s="3">
-        <v>91710</v>
+        <v>85010</v>
       </c>
     </row>
-    <row r="10" ht="57" spans="5:8">
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1310</v>
+    <row r="10" ht="24" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2010</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>9010</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5000000</v>
       </c>
       <c r="G10" s="3">
-        <v>1460</v>
-      </c>
-      <c r="H10" s="3">
-        <v>84460</v>
+        <v>109510</v>
       </c>
     </row>
-    <row r="11" ht="57" spans="5:8">
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2010</v>
+    <row r="11" ht="24" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8550</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E11" s="3">
+        <v>8550</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5000000</v>
       </c>
       <c r="G11" s="3">
-        <v>2010</v>
-      </c>
-      <c r="H11" s="3">
-        <v>85010</v>
+        <v>94050</v>
       </c>
     </row>
-    <row r="12" ht="38.25" spans="5:8">
-      <c r="E12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2010</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2010</v>
-      </c>
-      <c r="H12" s="3">
-        <v>85010</v>
+    <row r="12" ht="24" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2300</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4300</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="G12" s="5">
+        <v>94300</v>
       </c>
     </row>
-    <row r="13" ht="57" spans="5:8">
-      <c r="E13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2010</v>
+    <row r="13" ht="24" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1820</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E13" s="3">
+        <v>8820</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5000000</v>
       </c>
       <c r="G13" s="3">
-        <v>9010</v>
-      </c>
-      <c r="H13" s="3">
-        <v>109510</v>
+        <v>109320</v>
       </c>
     </row>
-    <row r="14" ht="57" spans="5:8">
-      <c r="E14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="3">
-        <v>8550</v>
+    <row r="14" ht="42.75" spans="1:7">
+      <c r="A14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1370</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1370</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5000000</v>
       </c>
       <c r="G14" s="3">
-        <v>8550</v>
-      </c>
-      <c r="H14" s="3">
-        <v>94050</v>
+        <v>84370</v>
       </c>
     </row>
-    <row r="15" ht="38.25" spans="5:8">
-      <c r="E15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="4">
-        <v>2300</v>
-      </c>
-      <c r="G15" s="5">
-        <v>4300</v>
-      </c>
-      <c r="H15" s="5">
-        <v>94300</v>
-      </c>
-    </row>
-    <row r="16" ht="21.75" spans="5:8">
-      <c r="E16" s="2" t="s">
+    <row r="15" ht="24" spans="1:7">
+      <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="3">
-        <v>1820</v>
-      </c>
-      <c r="G16" s="3">
-        <v>8820</v>
-      </c>
-      <c r="H16" s="3">
-        <v>109320</v>
-      </c>
-    </row>
-    <row r="17" ht="84.75" spans="5:8">
-      <c r="E17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1370</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1370</v>
-      </c>
-      <c r="H17" s="3">
-        <v>84370</v>
-      </c>
-    </row>
-    <row r="18" ht="21.75" spans="5:8">
-      <c r="E18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="B15" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C15" s="3">
         <v>2520</v>
       </c>
-      <c r="G18" s="3">
+      <c r="D15" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E15" s="3">
         <v>3770</v>
       </c>
-      <c r="H18" s="3">
+      <c r="F15" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="G15" s="3">
         <v>92020</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5">
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5">
-      <c r="E27" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
